--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Risikoanalyse</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Stellvertreter bestimmen</t>
+  </si>
+  <si>
+    <t>von 1 bis 10</t>
+  </si>
+  <si>
+    <t>von 1 bis 3</t>
   </si>
 </sst>
 </file>
@@ -463,7 +469,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,6 +484,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">

--- a/Risikoanalyse.xlsx
+++ b/Risikoanalyse.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Risikoanalyse</t>
   </si>
@@ -87,6 +87,24 @@
   </si>
   <si>
     <t>von 1 bis 3</t>
+  </si>
+  <si>
+    <t>Auswirkung</t>
+  </si>
+  <si>
+    <t>Verzögerung der Projektfertigstellung</t>
+  </si>
+  <si>
+    <t>Geringer Arbeitsverlust</t>
+  </si>
+  <si>
+    <t>Neue Terminvereinbarung</t>
+  </si>
+  <si>
+    <t>Neue Hardware beschafen</t>
+  </si>
+  <si>
+    <t>mit aufgeladenen laptops weiterarbeiten bis zur Stromwiederherstellung</t>
   </si>
 </sst>
 </file>
@@ -146,12 +164,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -245,23 +266,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,23 +301,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +464,11 @@
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -504,11 +492,14 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -523,10 +514,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -540,8 +534,14 @@
         <f>B4*C4</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -555,8 +555,14 @@
         <f>B5*C5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -570,8 +576,14 @@
         <f>B6*C6</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -586,10 +598,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -597,7 +612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -605,7 +620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
